--- a/1264/1264-tesctase.xlsx
+++ b/1264/1264-tesctase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\1264\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\1264\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1347,7 @@
     <hyperlink ref="K5" location="Sheet2!A3" display="hinh1"/>
     <hyperlink ref="K6" location="Sheet2!A25" display="hinh2"/>
     <hyperlink ref="K7" location="Sheet2!A3" display="hinh1"/>
-    <hyperlink ref="K8" location="Sheet2!A59" display="hinh mau"/>
+    <hyperlink ref="K8" location="Sheet2!A63" display="hinh mau"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A59"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
